--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_1_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_1_bus_ward34_resistance.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483736</v>
       </c>
       <c r="G2">
-        <v>0.7139956968989642</v>
+        <v>0.7139956970177337</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -552,22 +552,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000778</v>
       </c>
       <c r="C3">
-        <v>534.9620093080947</v>
+        <v>190.3977949716885</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799874</v>
+        <v>0.107731905384653</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642963</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352482</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273746</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157801954787755E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523254</v>
+        <v>0.8909260930523821</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.1885020403398</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="H3">
-        <v>5.549477056495868</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781325</v>
+        <v>0.1077319054063143</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133364</v>
+        <v>2.308438694631063</v>
       </c>
       <c r="L3">
-        <v>0.392814697382239</v>
+        <v>0.1077319054133311</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092862</v>
+        <v>0.9526279648020817</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.952627964809681</v>
+        <v>0.952627964802519</v>
       </c>
       <c r="Q3">
-        <v>8.619307183849497E-11</v>
+        <v>-4.023405178662958E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999998819</v>
+        <v>-179.9999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753103</v>
       </c>
       <c r="O4">
-        <v>0.7333333491380412</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292901</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.415113103920824E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625396</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663864</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.952627964838214</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888151678549743E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663864</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382139</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888155534101026E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523254</v>
+        <v>0.8909260930523821</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.1885020403398</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1145,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="H3">
-        <v>5.549477056495868</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781325</v>
+        <v>0.1077319054063143</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133364</v>
+        <v>2.308438694631063</v>
       </c>
       <c r="L3">
-        <v>0.392814697382239</v>
+        <v>0.1077319054133311</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092862</v>
+        <v>0.9526279648020817</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.952627964809681</v>
+        <v>0.952627964802519</v>
       </c>
       <c r="Q3">
-        <v>8.619307183849497E-11</v>
+        <v>-4.023405178662958E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999998819</v>
+        <v>-179.9999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753103</v>
       </c>
       <c r="O4">
-        <v>0.7333333491380412</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292901</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.415113103920824E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625396</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663864</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.952627964838214</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888151678549743E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663864</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382139</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888155534101026E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523254</v>
+        <v>0.8909260930523821</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.1885020403398</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1512,55 +1512,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="H3">
-        <v>5.549477056495868</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781325</v>
+        <v>0.1077319054063143</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133364</v>
+        <v>2.308438694631063</v>
       </c>
       <c r="L3">
-        <v>0.392814697382239</v>
+        <v>0.1077319054133311</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092862</v>
+        <v>0.9526279648020817</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.952627964809681</v>
+        <v>0.952627964802519</v>
       </c>
       <c r="Q3">
-        <v>8.619307183849497E-11</v>
+        <v>-4.023405178662958E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999998819</v>
+        <v>-179.9999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753103</v>
       </c>
       <c r="O4">
-        <v>0.7333333491380412</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292901</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.415113103920824E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625396</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663864</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.952627964838214</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888151678549743E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663864</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382139</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888155534101026E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888191</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610129</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043594</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.731342959647115</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>8.731342959647115</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208118</v>
+        <v>2.173959091208255</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934754</v>
+        <v>0.1153518594840241</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698255</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829956</v>
+        <v>0.1153518594713472</v>
       </c>
       <c r="M3">
-        <v>0.925228692617284</v>
+        <v>2.416397540675876</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851682</v>
+        <v>0.8660254037841221</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841819</v>
       </c>
       <c r="Q3">
-        <v>2.05518052550333E-10</v>
+        <v>3.076937022040861E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631726</v>
+        <v>0.8660254037597848</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333277</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085193</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368616</v>
+        <v>2.755475096060966E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552727</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516725</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663725429394253E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663712331009883E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888191</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610129</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043594</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.731342959647115</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>8.731342959647115</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208118</v>
+        <v>2.173959091208255</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934754</v>
+        <v>0.1153518594840241</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698255</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829956</v>
+        <v>0.1153518594713472</v>
       </c>
       <c r="M3">
-        <v>0.925228692617284</v>
+        <v>2.416397540675876</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851682</v>
+        <v>0.8660254037841221</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841819</v>
       </c>
       <c r="Q3">
-        <v>2.05518052550333E-10</v>
+        <v>3.076937022040861E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631726</v>
+        <v>0.8660254037597848</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333277</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085193</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368616</v>
+        <v>2.755475096060966E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552727</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516725</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663725429394253E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663712331009883E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888191</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610129</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043594</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2613,55 +2613,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.731342959647115</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>8.731342959647115</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208118</v>
+        <v>2.173959091208255</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934754</v>
+        <v>0.1153518594840241</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698255</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829956</v>
+        <v>0.1153518594713472</v>
       </c>
       <c r="M3">
-        <v>0.925228692617284</v>
+        <v>2.416397540675876</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851682</v>
+        <v>0.8660254037841221</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841819</v>
       </c>
       <c r="Q3">
-        <v>2.05518052550333E-10</v>
+        <v>3.076937022040861E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631726</v>
+        <v>0.8660254037597848</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333277</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085193</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368616</v>
+        <v>2.755475096060966E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552727</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516725</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663725429394253E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663712331009883E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888191</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610129</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043594</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2980,55 +2980,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.731342959647115</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>8.731342959647115</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>100.8208641627841</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208118</v>
+        <v>2.173959091208255</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934754</v>
+        <v>0.1153518594840241</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698255</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829956</v>
+        <v>0.1153518594713472</v>
       </c>
       <c r="M3">
-        <v>0.925228692617284</v>
+        <v>2.416397540675876</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851682</v>
+        <v>0.8660254037841221</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841819</v>
       </c>
       <c r="Q3">
-        <v>2.05518052550333E-10</v>
+        <v>3.076937022040861E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631726</v>
+        <v>0.8660254037597848</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333277</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085193</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368616</v>
+        <v>2.755475096060966E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552727</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516725</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663725429394253E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516724</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663712331009883E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.059185863761335</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.10000002384335</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.079249536297098</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.05653648591828</v>
+        <v>29.5786061170843</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000171</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.1509253301239</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.214312491366311</v>
+        <v>4.269054431591089</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>60.20969441058336</v>
+        <v>49.29479450528559</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.54947705649589</v>
+        <v>5.54947705649588</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.19759279784347</v>
       </c>
       <c r="J3">
-        <v>0.392814697366427</v>
+        <v>0.1077319053180344</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.30843869464296</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822678</v>
+        <v>0.1077319054132169</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203067</v>
+        <v>2.30843869464268</v>
       </c>
       <c r="N3">
-        <v>0.8856646744544331</v>
+        <v>0.6144432972249568</v>
       </c>
       <c r="O3">
-        <v>1.100000023842849</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P3">
-        <v>1.01557787497317</v>
+        <v>1.019342441086346</v>
       </c>
       <c r="Q3">
-        <v>29.6194962833779</v>
+        <v>23.93807817703967</v>
       </c>
       <c r="R3">
-        <v>-90.00000000003469</v>
+        <v>-89.99999999999734</v>
       </c>
       <c r="S3">
-        <v>139.2989256783441</v>
+        <v>123.4311965199738</v>
       </c>
       <c r="T3">
-        <v>5.21431249136631</v>
+        <v>4.269054431591088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.028550265801832</v>
+        <v>0.6144432972398817</v>
       </c>
       <c r="O4">
-        <v>1.100000023841839</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P4">
-        <v>1.067823870082014</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>29.89078594690218</v>
+        <v>23.9380781796798</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000914</v>
+        <v>-89.99999999999771</v>
       </c>
       <c r="S4">
-        <v>146.6252388279147</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448586</v>
       </c>
       <c r="O5">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P5">
-        <v>1.10000002384949</v>
+        <v>1.01934244105239</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870822</v>
+        <v>23.93807818055976</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448587</v>
       </c>
       <c r="O6">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P6">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870822</v>
+        <v>23.93807818055975</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.059185863761335</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.10000002384335</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.079249536297098</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.05653648591828</v>
+        <v>29.5786061170843</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000171</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.1509253301239</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.214312491366311</v>
+        <v>4.269054431591089</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>60.20969441058336</v>
+        <v>49.29479450528559</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.54947705649589</v>
+        <v>5.54947705649588</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.19759279784347</v>
       </c>
       <c r="J3">
-        <v>0.392814697366427</v>
+        <v>0.1077319053180344</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.30843869464296</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822678</v>
+        <v>0.1077319054132169</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203067</v>
+        <v>2.30843869464268</v>
       </c>
       <c r="N3">
-        <v>0.8856646744544331</v>
+        <v>0.6144432972249568</v>
       </c>
       <c r="O3">
-        <v>1.100000023842849</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P3">
-        <v>1.01557787497317</v>
+        <v>1.019342441086346</v>
       </c>
       <c r="Q3">
-        <v>29.6194962833779</v>
+        <v>23.93807817703967</v>
       </c>
       <c r="R3">
-        <v>-90.00000000003469</v>
+        <v>-89.99999999999734</v>
       </c>
       <c r="S3">
-        <v>139.2989256783441</v>
+        <v>123.4311965199738</v>
       </c>
       <c r="T3">
-        <v>5.21431249136631</v>
+        <v>4.269054431591088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.028550265801832</v>
+        <v>0.6144432972398817</v>
       </c>
       <c r="O4">
-        <v>1.100000023841839</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P4">
-        <v>1.067823870082014</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>29.89078594690218</v>
+        <v>23.9380781796798</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000914</v>
+        <v>-89.99999999999771</v>
       </c>
       <c r="S4">
-        <v>146.6252388279147</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448586</v>
       </c>
       <c r="O5">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P5">
-        <v>1.10000002384949</v>
+        <v>1.01934244105239</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870822</v>
+        <v>23.93807818055976</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448587</v>
       </c>
       <c r="O6">
-        <v>1.100000023841335</v>
+        <v>1.100000023852326</v>
       </c>
       <c r="P6">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870822</v>
+        <v>23.93807818055975</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089730009860671</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.100000023842208</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.092884001562818</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.12185916088326</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.5943547085473</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52975634288324</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.54947705649589</v>
+        <v>5.54947705649588</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.19759279784347</v>
       </c>
       <c r="J3">
-        <v>0.392814697366427</v>
+        <v>0.1077319053180344</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.30843869464296</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822678</v>
+        <v>0.1077319054132169</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203067</v>
+        <v>2.30843869464268</v>
       </c>
       <c r="N3">
-        <v>1.045519213496414</v>
+        <v>0.956852538740053</v>
       </c>
       <c r="O3">
-        <v>1.100000023841955</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.065539287962101</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.50942616315902</v>
+        <v>28.342026867492</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000597</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>147.710350043887</v>
+        <v>142.5196106427089</v>
       </c>
       <c r="T3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.081830416116111</v>
+        <v>0.9568525387446289</v>
       </c>
       <c r="O4">
-        <v>1.100000023841702</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.088322056522178</v>
+        <v>1.061233259722251</v>
       </c>
       <c r="Q4">
-        <v>30.16410722166161</v>
+        <v>28.34202686798951</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999956</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>149.2529381104573</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461548</v>
       </c>
       <c r="O5">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.100000023841856</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974202</v>
+        <v>28.34202686815533</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461548</v>
       </c>
       <c r="O6">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974202</v>
+        <v>28.34202686815533</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483736</v>
       </c>
       <c r="G2">
-        <v>0.7139956968989642</v>
+        <v>0.7139956970177337</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4427,22 +4427,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000778</v>
       </c>
       <c r="C3">
-        <v>534.9620093080947</v>
+        <v>190.3977949716885</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799874</v>
+        <v>0.107731905384653</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642963</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352482</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273746</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157801954787755E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089730009860671</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.100000023842208</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.092884001562818</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.12185916088326</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.5943547085473</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52975634288324</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.54947705649589</v>
+        <v>5.54947705649588</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.19759279784347</v>
       </c>
       <c r="J3">
-        <v>0.392814697366427</v>
+        <v>0.1077319053180344</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.30843869464296</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822678</v>
+        <v>0.1077319054132169</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203067</v>
+        <v>2.30843869464268</v>
       </c>
       <c r="N3">
-        <v>1.045519213496414</v>
+        <v>0.956852538740053</v>
       </c>
       <c r="O3">
-        <v>1.100000023841955</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.065539287962101</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.50942616315902</v>
+        <v>28.342026867492</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000597</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>147.710350043887</v>
+        <v>142.5196106427089</v>
       </c>
       <c r="T3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.081830416116111</v>
+        <v>0.9568525387446289</v>
       </c>
       <c r="O4">
-        <v>1.100000023841702</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.088322056522178</v>
+        <v>1.061233259722251</v>
       </c>
       <c r="Q4">
-        <v>30.16410722166161</v>
+        <v>28.34202686798951</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999956</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>149.2529381104573</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461548</v>
       </c>
       <c r="O5">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.100000023841856</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974202</v>
+        <v>28.34202686815533</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461548</v>
       </c>
       <c r="O6">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.100000023841856</v>
+        <v>1.061233259720349</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974202</v>
+        <v>28.34202686815533</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S6">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.967647082729331</v>
+        <v>0.9380882409808502</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985705</v>
+        <v>0.999999999995846</v>
       </c>
       <c r="P2">
-        <v>0.9854034822248159</v>
+        <v>0.9923448102284134</v>
       </c>
       <c r="Q2">
-        <v>29.92050795364841</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999535</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>148.3315692262161</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.735918966862851</v>
+        <v>2.675869257225819</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31.5916710399854</v>
+        <v>30.89827671951142</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208044</v>
       </c>
       <c r="J3">
-        <v>0.675027477878678</v>
+        <v>0.1153518595129076</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125755</v>
+        <v>2.416397540675823</v>
       </c>
       <c r="L3">
-        <v>0.675027477882969</v>
+        <v>0.1153518594711269</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172592</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.8441377279586338</v>
+        <v>0.7181269486848427</v>
       </c>
       <c r="O3">
-        <v>1.000000000000357</v>
+        <v>0.9999999999989716</v>
       </c>
       <c r="P3">
-        <v>0.9454503575576395</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>29.00775856660853</v>
+        <v>19.22824764083607</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999241</v>
+        <v>-89.99999999999778</v>
       </c>
       <c r="S3">
-        <v>141.3374147775727</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.735918966862851</v>
+        <v>2.675869257225819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9480162386812545</v>
+        <v>0.7181269486975271</v>
       </c>
       <c r="O4">
-        <v>1.000000000000435</v>
+        <v>0.9999999999989716</v>
       </c>
       <c r="P4">
-        <v>0.9793726293434913</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.7055077685826</v>
+        <v>19.22824764309008</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999503</v>
+        <v>-89.99999999999827</v>
       </c>
       <c r="S4">
-        <v>147.222005507838</v>
+        <v>131.6084190977143</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999992797</v>
+        <v>0.718126948701758</v>
       </c>
       <c r="O5">
-        <v>1.000000000000474</v>
+        <v>0.9999999999989716</v>
       </c>
       <c r="P5">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999852</v>
       </c>
       <c r="S5">
-        <v>149.9999999991462</v>
+        <v>131.6084190981348</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017581</v>
       </c>
       <c r="O6">
-        <v>1.000000000000474</v>
+        <v>0.9999999999989716</v>
       </c>
       <c r="P6">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>29.99999999906515</v>
+        <v>19.22824764384134</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999851</v>
       </c>
       <c r="S6">
-        <v>149.9999999991462</v>
+        <v>131.6084190981348</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.967647082729331</v>
+        <v>0.9380882409808502</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985705</v>
+        <v>0.999999999995846</v>
       </c>
       <c r="P2">
-        <v>0.9854034822248159</v>
+        <v>0.9923448102284134</v>
       </c>
       <c r="Q2">
-        <v>29.92050795364841</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999535</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>148.3315692262161</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.735918966862851</v>
+        <v>2.675869257225819</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31.5916710399854</v>
+        <v>30.89827671951142</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208044</v>
       </c>
       <c r="J3">
-        <v>0.675027477878678</v>
+        <v>0.1153518595129076</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125755</v>
+        <v>2.416397540675823</v>
       </c>
       <c r="L3">
-        <v>0.675027477882969</v>
+        <v>0.1153518594711269</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172592</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.8441377279586338</v>
+        <v>0.7181269486848427</v>
       </c>
       <c r="O3">
-        <v>1.000000000000357</v>
+        <v>0.9999999999989716</v>
       </c>
       <c r="P3">
-        <v>0.9454503575576395</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>29.00775856660853</v>
+        <v>19.22824764083607</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999241</v>
+        <v>-89.99999999999778</v>
       </c>
       <c r="S3">
-        <v>141.3374147775727</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.735918966862851</v>
+        <v>2.675869257225819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9480162386812545</v>
+        <v>0.7181269486975271</v>
       </c>
       <c r="O4">
-        <v>1.000000000000435</v>
+        <v>0.9999999999989716</v>
       </c>
       <c r="P4">
-        <v>0.9793726293434913</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.7055077685826</v>
+        <v>19.22824764309008</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999503</v>
+        <v>-89.99999999999827</v>
       </c>
       <c r="S4">
-        <v>147.222005507838</v>
+        <v>131.6084190977143</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999992797</v>
+        <v>0.718126948701758</v>
       </c>
       <c r="O5">
-        <v>1.000000000000474</v>
+        <v>0.9999999999989716</v>
       </c>
       <c r="P5">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>29.99999999906515</v>
+        <v>19.22824764384135</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999852</v>
       </c>
       <c r="S5">
-        <v>149.9999999991462</v>
+        <v>131.6084190981348</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017581</v>
       </c>
       <c r="O6">
-        <v>1.000000000000474</v>
+        <v>0.9999999999989716</v>
       </c>
       <c r="P6">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>29.99999999906515</v>
+        <v>19.22824764384134</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999851</v>
       </c>
       <c r="S6">
-        <v>149.9999999991462</v>
+        <v>131.6084190981348</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9879750830742445</v>
+        <v>0.9752784142044822</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996338</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.991378219381125</v>
+        <v>0.9932418816976997</v>
       </c>
       <c r="Q2">
-        <v>30.17724365988025</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999709</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.4862132965908</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880166</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.10900461647932</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208044</v>
       </c>
       <c r="J3">
-        <v>0.675027477878678</v>
+        <v>0.1153518595129076</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125755</v>
+        <v>2.416397540675823</v>
       </c>
       <c r="L3">
-        <v>0.675027477882969</v>
+        <v>0.1153518594711269</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172592</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.9411807240271659</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.000000000000131</v>
+        <v>0.9999999999998316</v>
       </c>
       <c r="P3">
-        <v>0.9614429953421808</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.71494733696598</v>
+        <v>27.67272062331512</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000092</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S3">
-        <v>147.3095267505598</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9803769661525124</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.000000000000053</v>
+        <v>0.9999999999998316</v>
       </c>
       <c r="P4">
-        <v>0.9869090578375679</v>
+        <v>0.9794355975864567</v>
       </c>
       <c r="Q4">
-        <v>30.22878239728844</v>
+        <v>27.67272062389993</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999788</v>
+        <v>-89.99999999999702</v>
       </c>
       <c r="S4">
-        <v>149.1266043354938</v>
+        <v>142.9557126462242</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999954067</v>
+        <v>0.8827270761516729</v>
       </c>
       <c r="O5">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998317</v>
       </c>
       <c r="P5">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q5">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S5">
-        <v>149.999999999618</v>
+        <v>142.9557126464336</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O6">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998317</v>
       </c>
       <c r="P6">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>29.99999999970415</v>
+        <v>27.67272062409484</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S6">
-        <v>149.999999999618</v>
+        <v>142.9557126464336</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9879750830742445</v>
+        <v>0.9752784142044822</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996338</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.991378219381125</v>
+        <v>0.9932418816976997</v>
       </c>
       <c r="Q2">
-        <v>30.17724365988025</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999709</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.4862132965908</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880166</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.10900461647932</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208044</v>
       </c>
       <c r="J3">
-        <v>0.675027477878678</v>
+        <v>0.1153518595129076</v>
       </c>
       <c r="K3">
-        <v>0.9252286926125755</v>
+        <v>2.416397540675823</v>
       </c>
       <c r="L3">
-        <v>0.675027477882969</v>
+        <v>0.1153518594711269</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172592</v>
+        <v>2.416397540675399</v>
       </c>
       <c r="N3">
-        <v>0.9411807240271659</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.000000000000131</v>
+        <v>0.9999999999998316</v>
       </c>
       <c r="P3">
-        <v>0.9614429953421808</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.71494733696598</v>
+        <v>27.67272062331512</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000092</v>
+        <v>-89.99999999999683</v>
       </c>
       <c r="S3">
-        <v>147.3095267505598</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>1.048670561241414</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9803769661525124</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.000000000000053</v>
+        <v>0.9999999999998316</v>
       </c>
       <c r="P4">
-        <v>0.9869090578375679</v>
+        <v>0.9794355975864567</v>
       </c>
       <c r="Q4">
-        <v>30.22878239728844</v>
+        <v>27.67272062389993</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999788</v>
+        <v>-89.99999999999702</v>
       </c>
       <c r="S4">
-        <v>149.1266043354938</v>
+        <v>142.9557126462242</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999954067</v>
+        <v>0.8827270761516729</v>
       </c>
       <c r="O5">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998317</v>
       </c>
       <c r="P5">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q5">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S5">
-        <v>149.999999999618</v>
+        <v>142.9557126464336</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999954067</v>
+        <v>0.882727076151673</v>
       </c>
       <c r="O6">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998317</v>
       </c>
       <c r="P6">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>29.99999999970415</v>
+        <v>27.67272062409484</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999971</v>
       </c>
       <c r="S6">
-        <v>149.999999999618</v>
+        <v>142.9557126464336</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525942</v>
+        <v>0.8909260930534473</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422532</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314654</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.3457798925812</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092458</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543376</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254006</v>
       </c>
       <c r="H3">
-        <v>5.549477056495868</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781325</v>
+        <v>0.1077319054063143</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133364</v>
+        <v>2.308438694631063</v>
       </c>
       <c r="L3">
-        <v>0.392814697382239</v>
+        <v>0.1077319054133311</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153996</v>
+        <v>0.8708416185467563</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159127</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.402024289629511</v>
+        <v>-9.2834883533274</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104095</v>
+        <v>2.917997876526139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000858805025821</v>
+        <v>0.8708416185120119</v>
       </c>
       <c r="O4">
-        <v>0.7333333491374061</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750354</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423852</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624976</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460672</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004285</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836061</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789355</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004285</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836061</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789368</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525942</v>
+        <v>0.8909260930534473</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422532</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314654</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.3457798925812</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092458</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543376</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254006</v>
       </c>
       <c r="H3">
-        <v>5.549477056495868</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781325</v>
+        <v>0.1077319054063143</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133364</v>
+        <v>2.308438694631063</v>
       </c>
       <c r="L3">
-        <v>0.392814697382239</v>
+        <v>0.1077319054133311</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153996</v>
+        <v>0.8708416185467563</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159127</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.402024289629511</v>
+        <v>-9.2834883533274</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104095</v>
+        <v>2.917997876526139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000858805025821</v>
+        <v>0.8708416185120119</v>
       </c>
       <c r="O4">
-        <v>0.7333333491374061</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750354</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423852</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624976</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460672</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004285</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836061</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789355</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004285</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836061</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789368</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525942</v>
+        <v>0.8909260930534473</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422532</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314654</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.3457798925812</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092458</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543376</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254006</v>
       </c>
       <c r="H3">
-        <v>5.549477056495868</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781325</v>
+        <v>0.1077319054063143</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133364</v>
+        <v>2.308438694631063</v>
       </c>
       <c r="L3">
-        <v>0.392814697382239</v>
+        <v>0.1077319054133311</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153996</v>
+        <v>0.8708416185467563</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159127</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.402024289629511</v>
+        <v>-9.2834883533274</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104095</v>
+        <v>2.917997876526139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000858805025821</v>
+        <v>0.8708416185120119</v>
       </c>
       <c r="O4">
-        <v>0.7333333491374061</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750354</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423852</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624976</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460672</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004285</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836061</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789355</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004285</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836061</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789368</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525942</v>
+        <v>0.8909260930534473</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422532</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314654</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.3457798925812</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092458</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543376</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254006</v>
       </c>
       <c r="H3">
-        <v>5.549477056495868</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781325</v>
+        <v>0.1077319054063143</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133364</v>
+        <v>2.308438694631063</v>
       </c>
       <c r="L3">
-        <v>0.392814697382239</v>
+        <v>0.1077319054133311</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153996</v>
+        <v>0.8708416185467563</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159127</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.402024289629511</v>
+        <v>-9.2834883533274</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104095</v>
+        <v>2.917997876526139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000858805025821</v>
+        <v>0.8708416185120119</v>
       </c>
       <c r="O4">
-        <v>0.7333333491374061</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750354</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423852</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624976</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460672</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004285</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836061</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789355</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004285</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836061</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789368</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458698</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169501</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541353</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782291</v>
+        <v>23.95979098161586</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.22492623897499</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841018</v>
+        <v>4.864249469156539</v>
       </c>
       <c r="D3">
-        <v>8.25546989076321</v>
+        <v>3.420873634629111</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846045</v>
       </c>
       <c r="G3">
-        <v>95.32595527437979</v>
+        <v>39.50084627633622</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208118</v>
+        <v>2.173959091208255</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934754</v>
+        <v>0.1153518594840241</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698255</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829956</v>
+        <v>0.1153518594713472</v>
       </c>
       <c r="M3">
-        <v>0.925228692617284</v>
+        <v>2.416397540675876</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469925</v>
+        <v>0.8383203831023526</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465952</v>
+        <v>0.8383203831022638</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851822</v>
+        <v>-5.989874420578514</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793318</v>
       </c>
       <c r="T3">
-        <v>1.53221840208547</v>
+        <v>1.541818903287515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360205</v>
+        <v>0.8383203830713338</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332806</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9210612976767681</v>
+        <v>0.8383203831282545</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558401</v>
+        <v>-5.989874417367585</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.0101255772911</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609924</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369174</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297272</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766109</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609924</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369174</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297289</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766109</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483736</v>
       </c>
       <c r="G2">
-        <v>0.7139956968989642</v>
+        <v>0.7139956970177337</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8428,22 +8428,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000778</v>
       </c>
       <c r="C3">
-        <v>534.9620093080947</v>
+        <v>190.3977949716885</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799874</v>
+        <v>0.107731905384653</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642963</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352482</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273746</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157801954787755E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169501</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541353</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782291</v>
+        <v>23.95979098161586</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.22492623897499</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841018</v>
+        <v>4.864249469156539</v>
       </c>
       <c r="D3">
-        <v>8.25546989076321</v>
+        <v>3.420873634629111</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846045</v>
       </c>
       <c r="G3">
-        <v>95.32595527437979</v>
+        <v>39.50084627633622</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208118</v>
+        <v>2.173959091208255</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934754</v>
+        <v>0.1153518594840241</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698255</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829956</v>
+        <v>0.1153518594713472</v>
       </c>
       <c r="M3">
-        <v>0.925228692617284</v>
+        <v>2.416397540675876</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469925</v>
+        <v>0.8383203831023526</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465952</v>
+        <v>0.8383203831022638</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851822</v>
+        <v>-5.989874420578514</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793318</v>
       </c>
       <c r="T3">
-        <v>1.53221840208547</v>
+        <v>1.541818903287515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360205</v>
+        <v>0.8383203830713338</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332806</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9210612976767681</v>
+        <v>0.8383203831282545</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558401</v>
+        <v>-5.989874417367585</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.0101255772911</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609924</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369174</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297272</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766109</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609924</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369174</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297289</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766109</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169501</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541353</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782291</v>
+        <v>23.95979098161586</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.22492623897499</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841018</v>
+        <v>4.864249469156539</v>
       </c>
       <c r="D3">
-        <v>8.25546989076321</v>
+        <v>3.420873634629111</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846045</v>
       </c>
       <c r="G3">
-        <v>95.32595527437979</v>
+        <v>39.50084627633622</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208118</v>
+        <v>2.173959091208255</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934754</v>
+        <v>0.1153518594840241</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698255</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829956</v>
+        <v>0.1153518594713472</v>
       </c>
       <c r="M3">
-        <v>0.925228692617284</v>
+        <v>2.416397540675876</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469925</v>
+        <v>0.8383203831023526</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465952</v>
+        <v>0.8383203831022638</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851822</v>
+        <v>-5.989874420578514</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793318</v>
       </c>
       <c r="T3">
-        <v>1.53221840208547</v>
+        <v>1.541818903287515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360205</v>
+        <v>0.8383203830713338</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332806</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9210612976767681</v>
+        <v>0.8383203831282545</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558401</v>
+        <v>-5.989874417367585</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.0101255772911</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609924</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369174</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297272</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766109</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609924</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369174</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297289</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766109</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169501</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541353</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782291</v>
+        <v>23.95979098161586</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.22492623897499</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841018</v>
+        <v>4.864249469156539</v>
       </c>
       <c r="D3">
-        <v>8.25546989076321</v>
+        <v>3.420873634629111</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846045</v>
       </c>
       <c r="G3">
-        <v>95.32595527437979</v>
+        <v>39.50084627633622</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208118</v>
+        <v>2.173959091208255</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934754</v>
+        <v>0.1153518594840241</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165096</v>
+        <v>2.416397540698255</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829956</v>
+        <v>0.1153518594713472</v>
       </c>
       <c r="M3">
-        <v>0.925228692617284</v>
+        <v>2.416397540675876</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469925</v>
+        <v>0.8383203831023526</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465952</v>
+        <v>0.8383203831022638</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851822</v>
+        <v>-5.989874420578514</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793318</v>
       </c>
       <c r="T3">
-        <v>1.53221840208547</v>
+        <v>1.541818903287515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360205</v>
+        <v>0.8383203830713338</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332806</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9210612976767681</v>
+        <v>0.8383203831282545</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558401</v>
+        <v>-5.989874417367585</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.0101255772911</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609924</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369174</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297272</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766109</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609924</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369174</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297289</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766109</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483736</v>
       </c>
       <c r="G2">
-        <v>0.7139956968989642</v>
+        <v>0.7139956970177337</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9734,22 +9734,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000778</v>
       </c>
       <c r="C3">
-        <v>534.9620093080947</v>
+        <v>190.3977949716885</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799874</v>
+        <v>0.107731905384653</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642963</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352482</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273746</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157801954787755E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646014</v>
+        <v>0.7936674232649465</v>
       </c>
       <c r="G2">
-        <v>0.7750737609890511</v>
+        <v>0.775073760913133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9885,22 +9885,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907244</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141779</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269359</v>
+        <v>87.26693929749283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6666666666271869</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.605749030662667E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.67120198540568E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646014</v>
+        <v>0.7936674232649465</v>
       </c>
       <c r="G2">
-        <v>0.7750737609890511</v>
+        <v>0.775073760913133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10036,22 +10036,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907244</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141779</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269359</v>
+        <v>87.26693929749283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6666666666271869</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.605749030662667E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.67120198540568E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646014</v>
+        <v>0.7936674232649465</v>
       </c>
       <c r="G2">
-        <v>0.7750737609890511</v>
+        <v>0.775073760913133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10187,22 +10187,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907244</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141779</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269359</v>
+        <v>87.26693929749283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6666666666271869</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.605749030662667E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.67120198540568E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646014</v>
+        <v>0.7936674232649465</v>
       </c>
       <c r="G2">
-        <v>0.7750737609890511</v>
+        <v>0.775073760913133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10338,22 +10338,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907244</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141779</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269359</v>
+        <v>87.26693929749283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6666666666271869</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.605749030662667E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.67120198540568E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523254</v>
+        <v>0.8909260930523821</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.1885020403398</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248879</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.9631090895074</v>
       </c>
       <c r="H3">
-        <v>5.549477056495868</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843536</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781325</v>
+        <v>0.1077319054063143</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133364</v>
+        <v>2.308438694631063</v>
       </c>
       <c r="L3">
-        <v>0.392814697382239</v>
+        <v>0.1077319054133311</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203294</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092862</v>
+        <v>0.9526279648020817</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.952627964809681</v>
+        <v>0.952627964802519</v>
       </c>
       <c r="Q3">
-        <v>8.619307183849497E-11</v>
+        <v>-4.023405178662958E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999998819</v>
+        <v>-179.9999999999899</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753103</v>
       </c>
       <c r="O4">
-        <v>0.7333333491380412</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292901</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.415113103920824E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625396</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663864</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.952627964838214</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888151678549743E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663864</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382139</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888155534101026E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_1_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_1_bus_ward34_resistance.xlsx
@@ -755,7 +755,7 @@
         <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
@@ -778,40 +778,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248879</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="D3">
-        <v>4.759944874248879</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.9631090895074</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="G3">
-        <v>54.9631090895074</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054097531216428</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.177627235670569</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063143</v>
+        <v>0.1077319054063176</v>
       </c>
       <c r="K3">
-        <v>2.308438694631063</v>
+        <v>2.308438694631068</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133311</v>
+        <v>0.1077319054133944</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642978</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020817</v>
+        <v>0.9526279648020816</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0.952627964802519</v>
       </c>
       <c r="Q3">
-        <v>-4.023405178662958E-12</v>
+        <v>-4.03513781983343E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753103</v>
+        <v>0.9526279647753101</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0.9526279648292901</v>
       </c>
       <c r="Q4">
-        <v>1.415113103920824E-09</v>
+        <v>1.41509608677625E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663864</v>
+        <v>0.9526279647663862</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627964838214</v>
+        <v>0.9526279648382138</v>
       </c>
       <c r="Q5">
-        <v>1.888151678549743E-09</v>
+        <v>1.888134647750517E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663864</v>
+        <v>0.9526279647663862</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382139</v>
+        <v>0.9526279648382138</v>
       </c>
       <c r="Q6">
-        <v>1.888155534101026E-09</v>
+        <v>1.888134647750517E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
@@ -1145,40 +1145,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248879</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="D3">
-        <v>4.759944874248879</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.9631090895074</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="G3">
-        <v>54.9631090895074</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054097531216428</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.177627235670569</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063143</v>
+        <v>0.1077319054063176</v>
       </c>
       <c r="K3">
-        <v>2.308438694631063</v>
+        <v>2.308438694631068</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133311</v>
+        <v>0.1077319054133944</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642978</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020817</v>
+        <v>0.9526279648020816</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0.952627964802519</v>
       </c>
       <c r="Q3">
-        <v>-4.023405178662958E-12</v>
+        <v>-4.03513781983343E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753103</v>
+        <v>0.9526279647753101</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0.9526279648292901</v>
       </c>
       <c r="Q4">
-        <v>1.415113103920824E-09</v>
+        <v>1.41509608677625E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663864</v>
+        <v>0.9526279647663862</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627964838214</v>
+        <v>0.9526279648382138</v>
       </c>
       <c r="Q5">
-        <v>1.888151678549743E-09</v>
+        <v>1.888134647750517E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1355,16 +1355,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663864</v>
+        <v>0.9526279647663862</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382139</v>
+        <v>0.9526279648382138</v>
       </c>
       <c r="Q6">
-        <v>1.888155534101026E-09</v>
+        <v>1.888134647750517E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
@@ -1512,40 +1512,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248879</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="D3">
-        <v>4.759944874248879</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.9631090895074</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="G3">
-        <v>54.9631090895074</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054097531216428</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.177627235670569</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063143</v>
+        <v>0.1077319054063176</v>
       </c>
       <c r="K3">
-        <v>2.308438694631063</v>
+        <v>2.308438694631068</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133311</v>
+        <v>0.1077319054133944</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642978</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020817</v>
+        <v>0.9526279648020816</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0.952627964802519</v>
       </c>
       <c r="Q3">
-        <v>-4.023405178662958E-12</v>
+        <v>-4.03513781983343E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753103</v>
+        <v>0.9526279647753101</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0.9526279648292901</v>
       </c>
       <c r="Q4">
-        <v>1.415113103920824E-09</v>
+        <v>1.41509608677625E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663864</v>
+        <v>0.9526279647663862</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627964838214</v>
+        <v>0.9526279648382138</v>
       </c>
       <c r="Q5">
-        <v>1.888151678549743E-09</v>
+        <v>1.888134647750517E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1722,16 +1722,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663864</v>
+        <v>0.9526279647663862</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382139</v>
+        <v>0.9526279648382138</v>
       </c>
       <c r="Q6">
-        <v>1.888155534101026E-09</v>
+        <v>1.888134647750517E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739478</v>
       </c>
       <c r="P2">
         <v>0.9574835309888191</v>
@@ -1865,10 +1865,10 @@
         <v>24.75158797610129</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897119</v>
       </c>
       <c r="S2">
-        <v>155.5173957043594</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,49 +1879,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661922</v>
       </c>
       <c r="D3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661922</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017936</v>
       </c>
       <c r="G3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017936</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15938997113216</v>
       </c>
       <c r="I3">
-        <v>2.173959091208255</v>
+        <v>2.143038053324232</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840241</v>
+        <v>0.1153518594840248</v>
       </c>
       <c r="K3">
-        <v>2.416397540698255</v>
+        <v>2.416397540698258</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713472</v>
+        <v>0.1153518594714073</v>
       </c>
       <c r="M3">
-        <v>2.416397540675876</v>
+        <v>2.416397540675907</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841221</v>
+        <v>0.866025403784122</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841819</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.076937022040861E-11</v>
+        <v>3.07703166325244E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597848</v>
+        <v>0.8660254037597847</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085193</v>
+        <v>0.8660254038085192</v>
       </c>
       <c r="Q4">
-        <v>2.755475096060966E-09</v>
+        <v>2.755483336748077E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516725</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q5">
-        <v>3.663725429394253E-09</v>
+        <v>3.663722734410883E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q6">
-        <v>3.663712331009883E-09</v>
+        <v>3.663722734410883E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739478</v>
       </c>
       <c r="P2">
         <v>0.9574835309888191</v>
@@ -2232,10 +2232,10 @@
         <v>24.75158797610129</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897119</v>
       </c>
       <c r="S2">
-        <v>155.5173957043594</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,49 +2246,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661922</v>
       </c>
       <c r="D3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661922</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017936</v>
       </c>
       <c r="G3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017936</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15938997113216</v>
       </c>
       <c r="I3">
-        <v>2.173959091208255</v>
+        <v>2.143038053324232</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840241</v>
+        <v>0.1153518594840248</v>
       </c>
       <c r="K3">
-        <v>2.416397540698255</v>
+        <v>2.416397540698258</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713472</v>
+        <v>0.1153518594714073</v>
       </c>
       <c r="M3">
-        <v>2.416397540675876</v>
+        <v>2.416397540675907</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841221</v>
+        <v>0.866025403784122</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841819</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.076937022040861E-11</v>
+        <v>3.07703166325244E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2338,16 +2338,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597848</v>
+        <v>0.8660254037597847</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085193</v>
+        <v>0.8660254038085192</v>
       </c>
       <c r="Q4">
-        <v>2.755475096060966E-09</v>
+        <v>2.755483336748077E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516725</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q5">
-        <v>3.663725429394253E-09</v>
+        <v>3.663722734410883E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q6">
-        <v>3.663712331009883E-09</v>
+        <v>3.663722734410883E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739478</v>
       </c>
       <c r="P2">
         <v>0.9574835309888191</v>
@@ -2599,10 +2599,10 @@
         <v>24.75158797610129</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897119</v>
       </c>
       <c r="S2">
-        <v>155.5173957043594</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2613,49 +2613,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661922</v>
       </c>
       <c r="D3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661922</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017936</v>
       </c>
       <c r="G3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017936</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15938997113216</v>
       </c>
       <c r="I3">
-        <v>2.173959091208255</v>
+        <v>2.143038053324232</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840241</v>
+        <v>0.1153518594840248</v>
       </c>
       <c r="K3">
-        <v>2.416397540698255</v>
+        <v>2.416397540698258</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713472</v>
+        <v>0.1153518594714073</v>
       </c>
       <c r="M3">
-        <v>2.416397540675876</v>
+        <v>2.416397540675907</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841221</v>
+        <v>0.866025403784122</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841819</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.076937022040861E-11</v>
+        <v>3.07703166325244E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2705,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597848</v>
+        <v>0.8660254037597847</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085193</v>
+        <v>0.8660254038085192</v>
       </c>
       <c r="Q4">
-        <v>2.755475096060966E-09</v>
+        <v>2.755483336748077E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516725</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q5">
-        <v>3.663725429394253E-09</v>
+        <v>3.663722734410883E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2823,16 +2823,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q6">
-        <v>3.663712331009883E-09</v>
+        <v>3.663722734410883E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232739478</v>
       </c>
       <c r="P2">
         <v>0.9574835309888191</v>
@@ -2966,10 +2966,10 @@
         <v>24.75158797610129</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897121</v>
+        <v>-89.22492623897119</v>
       </c>
       <c r="S2">
-        <v>155.5173957043594</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2980,49 +2980,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661922</v>
       </c>
       <c r="D3">
-        <v>4.13368458866192</v>
+        <v>4.133684588661922</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017936</v>
       </c>
       <c r="G3">
-        <v>47.73167820017935</v>
+        <v>47.73167820017936</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15938997113216</v>
       </c>
       <c r="I3">
-        <v>2.173959091208255</v>
+        <v>2.143038053324232</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840241</v>
+        <v>0.1153518594840248</v>
       </c>
       <c r="K3">
-        <v>2.416397540698255</v>
+        <v>2.416397540698258</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713472</v>
+        <v>0.1153518594714073</v>
       </c>
       <c r="M3">
-        <v>2.416397540675876</v>
+        <v>2.416397540675907</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841221</v>
+        <v>0.866025403784122</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841819</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.076937022040861E-11</v>
+        <v>3.07703166325244E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -3072,16 +3072,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597848</v>
+        <v>0.8660254037597847</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085193</v>
+        <v>0.8660254038085192</v>
       </c>
       <c r="Q4">
-        <v>2.755475096060966E-09</v>
+        <v>2.755483336748077E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -3131,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516725</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q5">
-        <v>3.663725429394253E-09</v>
+        <v>3.663722734410883E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516724</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q6">
-        <v>3.663712331009883E-09</v>
+        <v>3.663722734410883E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006400165160399</v>
+        <v>1.024498688915299</v>
       </c>
       <c r="O2">
-        <v>1.100000023846833</v>
+        <v>1.100000023846063</v>
       </c>
       <c r="P2">
-        <v>1.062983180491356</v>
+        <v>1.082216729990471</v>
       </c>
       <c r="Q2">
-        <v>29.5786061170843</v>
+        <v>28.87490854904766</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>145.4251889501103</v>
+        <v>145.9934366953163</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.269054431591089</v>
+        <v>3.560278674470802</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>49.29479450528559</v>
+        <v>41.11055702191603</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.54947705649588</v>
+        <v>8.054097531216422</v>
       </c>
       <c r="I3">
-        <v>2.19759279784347</v>
+        <v>2.177627235670381</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180344</v>
+        <v>0.1077319053180331</v>
       </c>
       <c r="K3">
-        <v>2.30843869464296</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132169</v>
+        <v>0.1077319054132148</v>
       </c>
       <c r="M3">
-        <v>2.30843869464268</v>
+        <v>2.308438694642605</v>
       </c>
       <c r="N3">
-        <v>0.6144432972249568</v>
+        <v>0.7197945165870238</v>
       </c>
       <c r="O3">
-        <v>1.100000023852326</v>
+        <v>1.100000023851442</v>
       </c>
       <c r="P3">
-        <v>1.019342441086346</v>
+        <v>1.090797335614173</v>
       </c>
       <c r="Q3">
-        <v>23.93807817703967</v>
+        <v>19.87145168400552</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999734</v>
+        <v>-89.99999999999764</v>
       </c>
       <c r="S3">
-        <v>123.4311965199738</v>
+        <v>128.3591190830561</v>
       </c>
       <c r="T3">
-        <v>4.269054431591088</v>
+        <v>3.560278674470802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6144432972398817</v>
+        <v>0.7197945165931949</v>
       </c>
       <c r="O4">
-        <v>1.100000023852326</v>
+        <v>1.100000023851442</v>
       </c>
       <c r="P4">
-        <v>1.019342441060879</v>
+        <v>1.0907973355915</v>
       </c>
       <c r="Q4">
-        <v>23.9380781796798</v>
+        <v>19.87145168607245</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>123.4311965210633</v>
+        <v>128.3591190837957</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6144432972448586</v>
+        <v>0.719794516595254</v>
       </c>
       <c r="O5">
-        <v>1.100000023852326</v>
+        <v>1.100000023851442</v>
       </c>
       <c r="P5">
-        <v>1.01934244105239</v>
+        <v>1.090797335583943</v>
       </c>
       <c r="Q5">
-        <v>23.93807818055976</v>
+        <v>19.87145168676137</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999788</v>
+        <v>-89.99999999999814</v>
       </c>
       <c r="S5">
-        <v>123.4311965214265</v>
+        <v>128.3591190840424</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6144432972448587</v>
+        <v>0.719794516595254</v>
       </c>
       <c r="O6">
-        <v>1.100000023852326</v>
+        <v>1.100000023851442</v>
       </c>
       <c r="P6">
-        <v>1.019342441052391</v>
+        <v>1.090797335583943</v>
       </c>
       <c r="Q6">
-        <v>23.93807818055975</v>
+        <v>19.87145168676137</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999788</v>
+        <v>-89.99999999999814</v>
       </c>
       <c r="S6">
-        <v>123.4311965214265</v>
+        <v>128.3591190840424</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006400165160399</v>
+        <v>1.024498688915299</v>
       </c>
       <c r="O2">
-        <v>1.100000023846833</v>
+        <v>1.100000023846063</v>
       </c>
       <c r="P2">
-        <v>1.062983180491356</v>
+        <v>1.082216729990471</v>
       </c>
       <c r="Q2">
-        <v>29.5786061170843</v>
+        <v>28.87490854904766</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>145.4251889501103</v>
+        <v>145.9934366953163</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.269054431591089</v>
+        <v>3.560278674470802</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>49.29479450528559</v>
+        <v>41.11055702191603</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.54947705649588</v>
+        <v>8.054097531216422</v>
       </c>
       <c r="I3">
-        <v>2.19759279784347</v>
+        <v>2.177627235670381</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180344</v>
+        <v>0.1077319053180331</v>
       </c>
       <c r="K3">
-        <v>2.30843869464296</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132169</v>
+        <v>0.1077319054132148</v>
       </c>
       <c r="M3">
-        <v>2.30843869464268</v>
+        <v>2.308438694642605</v>
       </c>
       <c r="N3">
-        <v>0.6144432972249568</v>
+        <v>0.7197945165870238</v>
       </c>
       <c r="O3">
-        <v>1.100000023852326</v>
+        <v>1.100000023851442</v>
       </c>
       <c r="P3">
-        <v>1.019342441086346</v>
+        <v>1.090797335614173</v>
       </c>
       <c r="Q3">
-        <v>23.93807817703967</v>
+        <v>19.87145168400552</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999734</v>
+        <v>-89.99999999999764</v>
       </c>
       <c r="S3">
-        <v>123.4311965199738</v>
+        <v>128.3591190830561</v>
       </c>
       <c r="T3">
-        <v>4.269054431591088</v>
+        <v>3.560278674470802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6144432972398817</v>
+        <v>0.7197945165931949</v>
       </c>
       <c r="O4">
-        <v>1.100000023852326</v>
+        <v>1.100000023851442</v>
       </c>
       <c r="P4">
-        <v>1.019342441060879</v>
+        <v>1.0907973355915</v>
       </c>
       <c r="Q4">
-        <v>23.9380781796798</v>
+        <v>19.87145168607245</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>123.4311965210633</v>
+        <v>128.3591190837957</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6144432972448586</v>
+        <v>0.719794516595254</v>
       </c>
       <c r="O5">
-        <v>1.100000023852326</v>
+        <v>1.100000023851442</v>
       </c>
       <c r="P5">
-        <v>1.01934244105239</v>
+        <v>1.090797335583943</v>
       </c>
       <c r="Q5">
-        <v>23.93807818055976</v>
+        <v>19.87145168676137</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999788</v>
+        <v>-89.99999999999814</v>
       </c>
       <c r="S5">
-        <v>123.4311965214265</v>
+        <v>128.3591190840424</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6144432972448587</v>
+        <v>0.719794516595254</v>
       </c>
       <c r="O6">
-        <v>1.100000023852326</v>
+        <v>1.100000023851442</v>
       </c>
       <c r="P6">
-        <v>1.019342441052391</v>
+        <v>1.090797335583943</v>
       </c>
       <c r="Q6">
-        <v>23.93807818055975</v>
+        <v>19.87145168676137</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999788</v>
+        <v>-89.99999999999814</v>
       </c>
       <c r="S6">
-        <v>123.4311965214265</v>
+        <v>128.3591190840424</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072434586115867</v>
+        <v>1.074215580059739</v>
       </c>
       <c r="O2">
-        <v>1.100000023843344</v>
+        <v>1.100000023843268</v>
       </c>
       <c r="P2">
-        <v>1.089822796270588</v>
+        <v>1.091794434769202</v>
       </c>
       <c r="Q2">
-        <v>29.7961857047866</v>
+        <v>29.72845426909326</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6442299648718</v>
+        <v>148.69390733347</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.265222117290822</v>
+        <v>1.195185764485359</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.60952660005049</v>
+        <v>13.80081645714461</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.54947705649588</v>
+        <v>8.054097531216422</v>
       </c>
       <c r="I3">
-        <v>2.19759279784347</v>
+        <v>2.177627235670381</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180344</v>
+        <v>0.1077319053180331</v>
       </c>
       <c r="K3">
-        <v>2.30843869464296</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132169</v>
+        <v>0.1077319054132148</v>
       </c>
       <c r="M3">
-        <v>2.30843869464268</v>
+        <v>2.308438694642605</v>
       </c>
       <c r="N3">
-        <v>0.956852538740053</v>
+        <v>0.9667144890146708</v>
       </c>
       <c r="O3">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P3">
-        <v>1.061233259727958</v>
+        <v>1.070682677327201</v>
       </c>
       <c r="Q3">
-        <v>28.342026867492</v>
+        <v>27.99135400450547</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S3">
-        <v>142.5196106427089</v>
+        <v>142.8705045352643</v>
       </c>
       <c r="T3">
-        <v>1.265222117290822</v>
+        <v>1.195185764485359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9568525387446289</v>
+        <v>0.9667144890184868</v>
       </c>
       <c r="O4">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P4">
-        <v>1.061233259722251</v>
+        <v>1.07068267732145</v>
       </c>
       <c r="Q4">
-        <v>28.34202686798951</v>
+        <v>27.99135400498595</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999679</v>
+        <v>-89.99999999999686</v>
       </c>
       <c r="S4">
-        <v>142.5196106431179</v>
+        <v>142.870504535632</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9568525387461548</v>
+        <v>0.9667144890197591</v>
       </c>
       <c r="O5">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P5">
-        <v>1.061233259720348</v>
+        <v>1.070682677319533</v>
       </c>
       <c r="Q5">
-        <v>28.34202686815533</v>
+        <v>27.99135400514609</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999685</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S5">
-        <v>142.5196106432543</v>
+        <v>142.8705045357546</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9568525387461548</v>
+        <v>0.9667144890197591</v>
       </c>
       <c r="O6">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P6">
-        <v>1.061233259720349</v>
+        <v>1.070682677319533</v>
       </c>
       <c r="Q6">
-        <v>28.34202686815533</v>
+        <v>27.99135400514609</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999683</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S6">
-        <v>142.5196106432543</v>
+        <v>142.8705045357546</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072434586115867</v>
+        <v>1.074215580059739</v>
       </c>
       <c r="O2">
-        <v>1.100000023843344</v>
+        <v>1.100000023843268</v>
       </c>
       <c r="P2">
-        <v>1.089822796270588</v>
+        <v>1.091794434769202</v>
       </c>
       <c r="Q2">
-        <v>29.7961857047866</v>
+        <v>29.72845426909326</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6442299648718</v>
+        <v>148.69390733347</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.265222117290822</v>
+        <v>1.195185764485359</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.60952660005049</v>
+        <v>13.80081645714461</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.54947705649588</v>
+        <v>8.054097531216422</v>
       </c>
       <c r="I3">
-        <v>2.19759279784347</v>
+        <v>2.177627235670381</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180344</v>
+        <v>0.1077319053180331</v>
       </c>
       <c r="K3">
-        <v>2.30843869464296</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132169</v>
+        <v>0.1077319054132148</v>
       </c>
       <c r="M3">
-        <v>2.30843869464268</v>
+        <v>2.308438694642605</v>
       </c>
       <c r="N3">
-        <v>0.956852538740053</v>
+        <v>0.9667144890146708</v>
       </c>
       <c r="O3">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P3">
-        <v>1.061233259727958</v>
+        <v>1.070682677327201</v>
       </c>
       <c r="Q3">
-        <v>28.342026867492</v>
+        <v>27.99135400450547</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S3">
-        <v>142.5196106427089</v>
+        <v>142.8705045352643</v>
       </c>
       <c r="T3">
-        <v>1.265222117290822</v>
+        <v>1.195185764485359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9568525387446289</v>
+        <v>0.9667144890184868</v>
       </c>
       <c r="O4">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P4">
-        <v>1.061233259722251</v>
+        <v>1.07068267732145</v>
       </c>
       <c r="Q4">
-        <v>28.34202686798951</v>
+        <v>27.99135400498595</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999679</v>
+        <v>-89.99999999999686</v>
       </c>
       <c r="S4">
-        <v>142.5196106431179</v>
+        <v>142.870504535632</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9568525387461548</v>
+        <v>0.9667144890197591</v>
       </c>
       <c r="O5">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P5">
-        <v>1.061233259720348</v>
+        <v>1.070682677319533</v>
       </c>
       <c r="Q5">
-        <v>28.34202686815533</v>
+        <v>27.99135400514609</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999685</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S5">
-        <v>142.5196106432543</v>
+        <v>142.8705045357546</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9568525387461548</v>
+        <v>0.9667144890197591</v>
       </c>
       <c r="O6">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P6">
-        <v>1.061233259720349</v>
+        <v>1.070682677319533</v>
       </c>
       <c r="Q6">
-        <v>28.34202686815533</v>
+        <v>27.99135400514609</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999683</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S6">
-        <v>142.5196106432543</v>
+        <v>142.8705045357546</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9380882409808502</v>
+        <v>0.9491405913273602</v>
       </c>
       <c r="O2">
-        <v>0.999999999995846</v>
+        <v>0.9999999999962371</v>
       </c>
       <c r="P2">
-        <v>0.9923448102284134</v>
+        <v>0.9984131749720233</v>
       </c>
       <c r="Q2">
-        <v>28.50094802036746</v>
+        <v>28.44017072351294</v>
       </c>
       <c r="R2">
         <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>146.1769103581508</v>
+        <v>146.7117478169774</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.675869257225819</v>
+        <v>2.294374424203176</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30.89827671951142</v>
+        <v>26.49315382870993</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>13.15938997113215</v>
       </c>
       <c r="I3">
-        <v>2.173959091208044</v>
+        <v>2.143038053324021</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129076</v>
+        <v>0.1153518595129034</v>
       </c>
       <c r="K3">
-        <v>2.416397540675823</v>
+        <v>2.416397540675818</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711269</v>
+        <v>0.115351859471124</v>
       </c>
       <c r="M3">
-        <v>2.416397540675399</v>
+        <v>2.416397540675332</v>
       </c>
       <c r="N3">
-        <v>0.7181269486848427</v>
+        <v>0.7714430951366371</v>
       </c>
       <c r="O3">
-        <v>0.9999999999989716</v>
+        <v>0.999999999998789</v>
       </c>
       <c r="P3">
-        <v>1.021127642238569</v>
+        <v>1.036621801659042</v>
       </c>
       <c r="Q3">
-        <v>19.22824764083607</v>
+        <v>19.71735911801331</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S3">
-        <v>131.608419096453</v>
+        <v>134.4716682339981</v>
       </c>
       <c r="T3">
-        <v>2.675869257225819</v>
+        <v>2.294374424203176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7181269486975271</v>
+        <v>0.7714430951454652</v>
       </c>
       <c r="O4">
-        <v>0.9999999999989716</v>
+        <v>0.999999999998789</v>
       </c>
       <c r="P4">
-        <v>1.02112764221727</v>
+        <v>1.036621801639993</v>
       </c>
       <c r="Q4">
-        <v>19.22824764309008</v>
+        <v>19.71735911987314</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999827</v>
+        <v>-89.99999999999828</v>
       </c>
       <c r="S4">
-        <v>131.6084190977143</v>
+        <v>134.4716682350205</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.718126948701758</v>
+        <v>0.7714430951484101</v>
       </c>
       <c r="O5">
-        <v>0.9999999999989716</v>
+        <v>0.9999999999987887</v>
       </c>
       <c r="P5">
-        <v>1.021127642210171</v>
+        <v>1.036621801633644</v>
       </c>
       <c r="Q5">
-        <v>19.22824764384135</v>
+        <v>19.71735912049302</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999852</v>
+        <v>-89.99999999999849</v>
       </c>
       <c r="S5">
-        <v>131.6084190981348</v>
+        <v>134.4716682353613</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7181269487017581</v>
+        <v>0.7714430951484101</v>
       </c>
       <c r="O6">
-        <v>0.9999999999989716</v>
+        <v>0.9999999999987887</v>
       </c>
       <c r="P6">
-        <v>1.021127642210171</v>
+        <v>1.036621801633644</v>
       </c>
       <c r="Q6">
-        <v>19.22824764384134</v>
+        <v>19.71735912049302</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999851</v>
+        <v>-89.99999999999849</v>
       </c>
       <c r="S6">
-        <v>131.6084190981348</v>
+        <v>134.4716682353613</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9380882409808502</v>
+        <v>0.9491405913273602</v>
       </c>
       <c r="O2">
-        <v>0.999999999995846</v>
+        <v>0.9999999999962371</v>
       </c>
       <c r="P2">
-        <v>0.9923448102284134</v>
+        <v>0.9984131749720233</v>
       </c>
       <c r="Q2">
-        <v>28.50094802036746</v>
+        <v>28.44017072351294</v>
       </c>
       <c r="R2">
         <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>146.1769103581508</v>
+        <v>146.7117478169774</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.675869257225819</v>
+        <v>2.294374424203176</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30.89827671951142</v>
+        <v>26.49315382870993</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>13.15938997113215</v>
       </c>
       <c r="I3">
-        <v>2.173959091208044</v>
+        <v>2.143038053324021</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129076</v>
+        <v>0.1153518595129034</v>
       </c>
       <c r="K3">
-        <v>2.416397540675823</v>
+        <v>2.416397540675818</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711269</v>
+        <v>0.115351859471124</v>
       </c>
       <c r="M3">
-        <v>2.416397540675399</v>
+        <v>2.416397540675332</v>
       </c>
       <c r="N3">
-        <v>0.7181269486848427</v>
+        <v>0.7714430951366371</v>
       </c>
       <c r="O3">
-        <v>0.9999999999989716</v>
+        <v>0.999999999998789</v>
       </c>
       <c r="P3">
-        <v>1.021127642238569</v>
+        <v>1.036621801659042</v>
       </c>
       <c r="Q3">
-        <v>19.22824764083607</v>
+        <v>19.71735911801331</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S3">
-        <v>131.608419096453</v>
+        <v>134.4716682339981</v>
       </c>
       <c r="T3">
-        <v>2.675869257225819</v>
+        <v>2.294374424203176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7181269486975271</v>
+        <v>0.7714430951454652</v>
       </c>
       <c r="O4">
-        <v>0.9999999999989716</v>
+        <v>0.999999999998789</v>
       </c>
       <c r="P4">
-        <v>1.02112764221727</v>
+        <v>1.036621801639993</v>
       </c>
       <c r="Q4">
-        <v>19.22824764309008</v>
+        <v>19.71735911987314</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999827</v>
+        <v>-89.99999999999828</v>
       </c>
       <c r="S4">
-        <v>131.6084190977143</v>
+        <v>134.4716682350205</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.718126948701758</v>
+        <v>0.7714430951484101</v>
       </c>
       <c r="O5">
-        <v>0.9999999999989716</v>
+        <v>0.9999999999987887</v>
       </c>
       <c r="P5">
-        <v>1.021127642210171</v>
+        <v>1.036621801633644</v>
       </c>
       <c r="Q5">
-        <v>19.22824764384135</v>
+        <v>19.71735912049302</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999852</v>
+        <v>-89.99999999999849</v>
       </c>
       <c r="S5">
-        <v>131.6084190981348</v>
+        <v>134.4716682353613</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7181269487017581</v>
+        <v>0.7714430951484101</v>
       </c>
       <c r="O6">
-        <v>0.9999999999989716</v>
+        <v>0.9999999999987887</v>
       </c>
       <c r="P6">
-        <v>1.021127642210171</v>
+        <v>1.036621801633644</v>
       </c>
       <c r="Q6">
-        <v>19.22824764384134</v>
+        <v>19.71735912049302</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999851</v>
+        <v>-89.99999999999849</v>
       </c>
       <c r="S6">
-        <v>131.6084190981348</v>
+        <v>134.4716682353613</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9752784142044822</v>
+        <v>0.9769010531334081</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985698</v>
+        <v>0.9999999999985939</v>
       </c>
       <c r="P2">
-        <v>0.9932418816976997</v>
+        <v>0.9946648114648212</v>
       </c>
       <c r="Q2">
-        <v>29.63976589252149</v>
+        <v>29.59706315234393</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5870138120459</v>
+        <v>148.6484925101047</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.019575804880166</v>
+        <v>0.9648841483548416</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.77304730813587</v>
+        <v>11.14152245578941</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>13.15938997113215</v>
       </c>
       <c r="I3">
-        <v>2.173959091208044</v>
+        <v>2.143038053324021</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129076</v>
+        <v>0.1153518595129034</v>
       </c>
       <c r="K3">
-        <v>2.416397540675823</v>
+        <v>2.416397540675818</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711269</v>
+        <v>0.115351859471124</v>
       </c>
       <c r="M3">
-        <v>2.416397540675399</v>
+        <v>2.416397540675332</v>
       </c>
       <c r="N3">
-        <v>0.8827270761415116</v>
+        <v>0.8908554976005625</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998316</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P3">
-        <v>0.9794355975913516</v>
+        <v>0.9854859913905805</v>
       </c>
       <c r="Q3">
-        <v>27.67272062331512</v>
+        <v>27.49051262270793</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999683</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S3">
-        <v>142.9557126455962</v>
+        <v>143.3124459213141</v>
       </c>
       <c r="T3">
-        <v>1.019575804880166</v>
+        <v>0.9648841483548415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8827270761491318</v>
+        <v>0.8908554976073473</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998316</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P4">
-        <v>0.9794355975864567</v>
+        <v>0.9854859913855495</v>
       </c>
       <c r="Q4">
-        <v>27.67272062389993</v>
+        <v>27.49051262327839</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999702</v>
+        <v>-89.99999999999706</v>
       </c>
       <c r="S4">
-        <v>142.9557126462242</v>
+        <v>143.3124459218937</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8827270761516729</v>
+        <v>0.8908554976096099</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998317</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P5">
-        <v>0.9794355975848256</v>
+        <v>0.9854859913838729</v>
       </c>
       <c r="Q5">
-        <v>27.67272062409485</v>
+        <v>27.49051262346851</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999971</v>
+        <v>-89.99999999999714</v>
       </c>
       <c r="S5">
-        <v>142.9557126464336</v>
+        <v>143.3124459220869</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.882727076151673</v>
+        <v>0.8908554976096099</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998317</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P6">
-        <v>0.9794355975848256</v>
+        <v>0.9854859913838729</v>
       </c>
       <c r="Q6">
-        <v>27.67272062409484</v>
+        <v>27.49051262346851</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999971</v>
+        <v>-89.99999999999714</v>
       </c>
       <c r="S6">
-        <v>142.9557126464336</v>
+        <v>143.3124459220869</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9752784142044822</v>
+        <v>0.9769010531334081</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985698</v>
+        <v>0.9999999999985939</v>
       </c>
       <c r="P2">
-        <v>0.9932418816976997</v>
+        <v>0.9946648114648212</v>
       </c>
       <c r="Q2">
-        <v>29.63976589252149</v>
+        <v>29.59706315234393</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5870138120459</v>
+        <v>148.6484925101047</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.019575804880166</v>
+        <v>0.9648841483548416</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.77304730813587</v>
+        <v>11.14152245578941</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>13.15938997113215</v>
       </c>
       <c r="I3">
-        <v>2.173959091208044</v>
+        <v>2.143038053324021</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129076</v>
+        <v>0.1153518595129034</v>
       </c>
       <c r="K3">
-        <v>2.416397540675823</v>
+        <v>2.416397540675818</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711269</v>
+        <v>0.115351859471124</v>
       </c>
       <c r="M3">
-        <v>2.416397540675399</v>
+        <v>2.416397540675332</v>
       </c>
       <c r="N3">
-        <v>0.8827270761415116</v>
+        <v>0.8908554976005625</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998316</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P3">
-        <v>0.9794355975913516</v>
+        <v>0.9854859913905805</v>
       </c>
       <c r="Q3">
-        <v>27.67272062331512</v>
+        <v>27.49051262270793</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999683</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S3">
-        <v>142.9557126455962</v>
+        <v>143.3124459213141</v>
       </c>
       <c r="T3">
-        <v>1.019575804880166</v>
+        <v>0.9648841483548415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8827270761491318</v>
+        <v>0.8908554976073473</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998316</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P4">
-        <v>0.9794355975864567</v>
+        <v>0.9854859913855495</v>
       </c>
       <c r="Q4">
-        <v>27.67272062389993</v>
+        <v>27.49051262327839</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999702</v>
+        <v>-89.99999999999706</v>
       </c>
       <c r="S4">
-        <v>142.9557126462242</v>
+        <v>143.3124459218937</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8827270761516729</v>
+        <v>0.8908554976096099</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998317</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P5">
-        <v>0.9794355975848256</v>
+        <v>0.9854859913838729</v>
       </c>
       <c r="Q5">
-        <v>27.67272062409485</v>
+        <v>27.49051262346851</v>
       </c>
       <c r="R5">
-        <v>-89.9999999999971</v>
+        <v>-89.99999999999714</v>
       </c>
       <c r="S5">
-        <v>142.9557126464336</v>
+        <v>143.3124459220869</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.882727076151673</v>
+        <v>0.8908554976096099</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998317</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P6">
-        <v>0.9794355975848256</v>
+        <v>0.9854859913838729</v>
       </c>
       <c r="Q6">
-        <v>27.67272062409484</v>
+        <v>27.49051262346851</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999971</v>
+        <v>-89.99999999999714</v>
       </c>
       <c r="S6">
-        <v>142.9557126464336</v>
+        <v>143.3124459220869</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.027540811293105</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534473</v>
+        <v>0.8909260930530865</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.055621653061765</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422532</v>
+        <v>24.39061403701526</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430313396</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>153.7718426408196</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>5.763126742072743</v>
       </c>
       <c r="D3">
-        <v>3.634748069092458</v>
+        <v>3.802967693350276</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>66.54685551819259</v>
       </c>
       <c r="G3">
-        <v>41.97045552254006</v>
+        <v>43.91288842950465</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054097531216428</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.177627235670569</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063143</v>
+        <v>0.1077319054063176</v>
       </c>
       <c r="K3">
-        <v>2.308438694631063</v>
+        <v>2.308438694631068</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133311</v>
+        <v>0.1077319054133944</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642978</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467563</v>
+        <v>0.9067058124380001</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.9067058124395984</v>
       </c>
       <c r="Q3">
-        <v>-9.2834883533274</v>
+        <v>-7.209876579995591</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>172.7901234199961</v>
       </c>
       <c r="T3">
-        <v>2.917997876526139</v>
+        <v>2.173496128293635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120119</v>
+        <v>0.9067058124042983</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750354</v>
+        <v>0.9067058124649426</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423852</v>
+        <v>-7.209876578286567</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460672</v>
+        <v>172.7901234191714</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8708416185004285</v>
+        <v>0.9067058123930632</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836061</v>
+        <v>0.90670581247339</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789355</v>
+        <v>-7.209876577716911</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458698</v>
+        <v>172.7901234188965</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8708416185004285</v>
+        <v>0.9067058123930632</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836061</v>
+        <v>0.90670581247339</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789368</v>
+        <v>-7.209876577716911</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458698</v>
+        <v>172.7901234188965</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.027540811293105</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534473</v>
+        <v>0.8909260930530865</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.055621653061765</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422532</v>
+        <v>24.39061403701526</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430313396</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>153.7718426408196</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>5.763126742072743</v>
       </c>
       <c r="D3">
-        <v>3.634748069092458</v>
+        <v>3.802967693350276</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>66.54685551819259</v>
       </c>
       <c r="G3">
-        <v>41.97045552254006</v>
+        <v>43.91288842950465</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054097531216428</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.177627235670569</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063143</v>
+        <v>0.1077319054063176</v>
       </c>
       <c r="K3">
-        <v>2.308438694631063</v>
+        <v>2.308438694631068</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133311</v>
+        <v>0.1077319054133944</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642978</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467563</v>
+        <v>0.9067058124380001</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.9067058124395984</v>
       </c>
       <c r="Q3">
-        <v>-9.2834883533274</v>
+        <v>-7.209876579995591</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>172.7901234199961</v>
       </c>
       <c r="T3">
-        <v>2.917997876526139</v>
+        <v>2.173496128293635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120119</v>
+        <v>0.9067058124042983</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750354</v>
+        <v>0.9067058124649426</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423852</v>
+        <v>-7.209876578286567</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460672</v>
+        <v>172.7901234191714</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8708416185004285</v>
+        <v>0.9067058123930632</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836061</v>
+        <v>0.90670581247339</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789355</v>
+        <v>-7.209876577716911</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458698</v>
+        <v>172.7901234188965</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8708416185004285</v>
+        <v>0.9067058123930632</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836061</v>
+        <v>0.90670581247339</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789368</v>
+        <v>-7.209876577716911</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458698</v>
+        <v>172.7901234188965</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.027540811293105</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534473</v>
+        <v>0.8909260930530865</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.055621653061765</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422532</v>
+        <v>24.39061403701526</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430313396</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>153.7718426408196</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>5.763126742072743</v>
       </c>
       <c r="D3">
-        <v>3.634748069092458</v>
+        <v>3.802967693350276</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>66.54685551819259</v>
       </c>
       <c r="G3">
-        <v>41.97045552254006</v>
+        <v>43.91288842950465</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054097531216428</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.177627235670569</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063143</v>
+        <v>0.1077319054063176</v>
       </c>
       <c r="K3">
-        <v>2.308438694631063</v>
+        <v>2.308438694631068</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133311</v>
+        <v>0.1077319054133944</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642978</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467563</v>
+        <v>0.9067058124380001</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.9067058124395984</v>
       </c>
       <c r="Q3">
-        <v>-9.2834883533274</v>
+        <v>-7.209876579995591</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>172.7901234199961</v>
       </c>
       <c r="T3">
-        <v>2.917997876526139</v>
+        <v>2.173496128293635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120119</v>
+        <v>0.9067058124042983</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750354</v>
+        <v>0.9067058124649426</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423852</v>
+        <v>-7.209876578286567</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460672</v>
+        <v>172.7901234191714</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8708416185004285</v>
+        <v>0.9067058123930632</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836061</v>
+        <v>0.90670581247339</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789355</v>
+        <v>-7.209876577716911</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458698</v>
+        <v>172.7901234188965</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8708416185004285</v>
+        <v>0.9067058123930632</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836061</v>
+        <v>0.90670581247339</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789368</v>
+        <v>-7.209876577716911</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458698</v>
+        <v>172.7901234188965</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.027540811293105</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534473</v>
+        <v>0.8909260930530865</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.055621653061765</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422532</v>
+        <v>24.39061403701526</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430313396</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>153.7718426408196</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>5.763126742072743</v>
       </c>
       <c r="D3">
-        <v>3.634748069092458</v>
+        <v>3.802967693350276</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>66.54685551819259</v>
       </c>
       <c r="G3">
-        <v>41.97045552254006</v>
+        <v>43.91288842950465</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054097531216428</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.177627235670569</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063143</v>
+        <v>0.1077319054063176</v>
       </c>
       <c r="K3">
-        <v>2.308438694631063</v>
+        <v>2.308438694631068</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133311</v>
+        <v>0.1077319054133944</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642978</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467563</v>
+        <v>0.9067058124380001</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.9067058124395984</v>
       </c>
       <c r="Q3">
-        <v>-9.2834883533274</v>
+        <v>-7.209876579995591</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>172.7901234199961</v>
       </c>
       <c r="T3">
-        <v>2.917997876526139</v>
+        <v>2.173496128293635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120119</v>
+        <v>0.9067058124042983</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750354</v>
+        <v>0.9067058124649426</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423852</v>
+        <v>-7.209876578286567</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460672</v>
+        <v>172.7901234191714</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8708416185004285</v>
+        <v>0.9067058123930632</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836061</v>
+        <v>0.90670581247339</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789355</v>
+        <v>-7.209876577716911</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458698</v>
+        <v>172.7901234188965</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8708416185004285</v>
+        <v>0.9067058123930632</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836061</v>
+        <v>0.90670581247339</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789368</v>
+        <v>-7.209876577716911</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458698</v>
+        <v>172.7901234188965</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169501</v>
+        <v>0.9366244675394114</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.7936674232729521</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541353</v>
+        <v>0.9588722205365662</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161586</v>
+        <v>24.06103634805532</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897499</v>
+        <v>-89.22492623897374</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>154.5715508722636</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156539</v>
+        <v>4.74481252799785</v>
       </c>
       <c r="D3">
-        <v>3.420873634629111</v>
+        <v>3.531039822413594</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846045</v>
+        <v>54.78837580587736</v>
       </c>
       <c r="G3">
-        <v>39.50084627633622</v>
+        <v>40.77293583979554</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15938997113216</v>
       </c>
       <c r="I3">
-        <v>2.173959091208255</v>
+        <v>2.143038053324232</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840241</v>
+        <v>0.1153518594840248</v>
       </c>
       <c r="K3">
-        <v>2.416397540698255</v>
+        <v>2.416397540698258</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713472</v>
+        <v>0.1153518594714073</v>
       </c>
       <c r="M3">
-        <v>2.416397540675876</v>
+        <v>2.416397540675907</v>
       </c>
       <c r="N3">
-        <v>0.8383203831023526</v>
+        <v>0.8468087564795187</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022638</v>
+        <v>0.8468087564794906</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578514</v>
+        <v>-4.978165056995913</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793318</v>
+        <v>175.0218349429214</v>
       </c>
       <c r="T3">
-        <v>1.541818903287515</v>
+        <v>1.270268944974558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713338</v>
+        <v>0.8468087564493466</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8383203831282545</v>
+        <v>0.8468087565049613</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367585</v>
+        <v>-4.978165053891467</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.0101255772911</v>
+        <v>175.0218349407596</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609924</v>
+        <v>0.8468087564392879</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369174</v>
+        <v>0.846808756513451</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297272</v>
+        <v>-4.978165052856658</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766109</v>
+        <v>175.021834940039</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609924</v>
+        <v>0.8468087564392879</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369174</v>
+        <v>0.846808756513451</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297289</v>
+        <v>-4.978165052856658</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766109</v>
+        <v>175.021834940039</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169501</v>
+        <v>0.9366244675394114</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.7936674232729521</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541353</v>
+        <v>0.9588722205365662</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161586</v>
+        <v>24.06103634805532</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897499</v>
+        <v>-89.22492623897374</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>154.5715508722636</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156539</v>
+        <v>4.74481252799785</v>
       </c>
       <c r="D3">
-        <v>3.420873634629111</v>
+        <v>3.531039822413594</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846045</v>
+        <v>54.78837580587736</v>
       </c>
       <c r="G3">
-        <v>39.50084627633622</v>
+        <v>40.77293583979554</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15938997113216</v>
       </c>
       <c r="I3">
-        <v>2.173959091208255</v>
+        <v>2.143038053324232</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840241</v>
+        <v>0.1153518594840248</v>
       </c>
       <c r="K3">
-        <v>2.416397540698255</v>
+        <v>2.416397540698258</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713472</v>
+        <v>0.1153518594714073</v>
       </c>
       <c r="M3">
-        <v>2.416397540675876</v>
+        <v>2.416397540675907</v>
       </c>
       <c r="N3">
-        <v>0.8383203831023526</v>
+        <v>0.8468087564795187</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022638</v>
+        <v>0.8468087564794906</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578514</v>
+        <v>-4.978165056995913</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793318</v>
+        <v>175.0218349429214</v>
       </c>
       <c r="T3">
-        <v>1.541818903287515</v>
+        <v>1.270268944974558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713338</v>
+        <v>0.8468087564493466</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8383203831282545</v>
+        <v>0.8468087565049613</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367585</v>
+        <v>-4.978165053891467</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.0101255772911</v>
+        <v>175.0218349407596</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609924</v>
+        <v>0.8468087564392879</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369174</v>
+        <v>0.846808756513451</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297272</v>
+        <v>-4.978165052856658</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766109</v>
+        <v>175.021834940039</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609924</v>
+        <v>0.8468087564392879</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369174</v>
+        <v>0.846808756513451</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297289</v>
+        <v>-4.978165052856658</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766109</v>
+        <v>175.021834940039</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169501</v>
+        <v>0.9366244675394114</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.7936674232729521</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541353</v>
+        <v>0.9588722205365662</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161586</v>
+        <v>24.06103634805532</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897499</v>
+        <v>-89.22492623897374</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>154.5715508722636</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156539</v>
+        <v>4.74481252799785</v>
       </c>
       <c r="D3">
-        <v>3.420873634629111</v>
+        <v>3.531039822413594</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846045</v>
+        <v>54.78837580587736</v>
       </c>
       <c r="G3">
-        <v>39.50084627633622</v>
+        <v>40.77293583979554</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15938997113216</v>
       </c>
       <c r="I3">
-        <v>2.173959091208255</v>
+        <v>2.143038053324232</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840241</v>
+        <v>0.1153518594840248</v>
       </c>
       <c r="K3">
-        <v>2.416397540698255</v>
+        <v>2.416397540698258</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713472</v>
+        <v>0.1153518594714073</v>
       </c>
       <c r="M3">
-        <v>2.416397540675876</v>
+        <v>2.416397540675907</v>
       </c>
       <c r="N3">
-        <v>0.8383203831023526</v>
+        <v>0.8468087564795187</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022638</v>
+        <v>0.8468087564794906</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578514</v>
+        <v>-4.978165056995913</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793318</v>
+        <v>175.0218349429214</v>
       </c>
       <c r="T3">
-        <v>1.541818903287515</v>
+        <v>1.270268944974558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713338</v>
+        <v>0.8468087564493466</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8383203831282545</v>
+        <v>0.8468087565049613</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367585</v>
+        <v>-4.978165053891467</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.0101255772911</v>
+        <v>175.0218349407596</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609924</v>
+        <v>0.8468087564392879</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369174</v>
+        <v>0.846808756513451</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297272</v>
+        <v>-4.978165052856658</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766109</v>
+        <v>175.021834940039</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609924</v>
+        <v>0.8468087564392879</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369174</v>
+        <v>0.846808756513451</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297289</v>
+        <v>-4.978165052856658</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766109</v>
+        <v>175.021834940039</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169501</v>
+        <v>0.9366244675394114</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.7936674232729521</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541353</v>
+        <v>0.9588722205365662</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161586</v>
+        <v>24.06103634805532</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897499</v>
+        <v>-89.22492623897374</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>154.5715508722636</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156539</v>
+        <v>4.74481252799785</v>
       </c>
       <c r="D3">
-        <v>3.420873634629111</v>
+        <v>3.531039822413594</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846045</v>
+        <v>54.78837580587736</v>
       </c>
       <c r="G3">
-        <v>39.50084627633622</v>
+        <v>40.77293583979554</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15938997113216</v>
       </c>
       <c r="I3">
-        <v>2.173959091208255</v>
+        <v>2.143038053324232</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840241</v>
+        <v>0.1153518594840248</v>
       </c>
       <c r="K3">
-        <v>2.416397540698255</v>
+        <v>2.416397540698258</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713472</v>
+        <v>0.1153518594714073</v>
       </c>
       <c r="M3">
-        <v>2.416397540675876</v>
+        <v>2.416397540675907</v>
       </c>
       <c r="N3">
-        <v>0.8383203831023526</v>
+        <v>0.8468087564795187</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022638</v>
+        <v>0.8468087564794906</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578514</v>
+        <v>-4.978165056995913</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793318</v>
+        <v>175.0218349429214</v>
       </c>
       <c r="T3">
-        <v>1.541818903287515</v>
+        <v>1.270268944974558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713338</v>
+        <v>0.8468087564493466</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8383203831282545</v>
+        <v>0.8468087565049613</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367585</v>
+        <v>-4.978165053891467</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.0101255772911</v>
+        <v>175.0218349407596</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609924</v>
+        <v>0.8468087564392879</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369174</v>
+        <v>0.846808756513451</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297272</v>
+        <v>-4.978165052856658</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766109</v>
+        <v>175.021834940039</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609924</v>
+        <v>0.8468087564392879</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369174</v>
+        <v>0.846808756513451</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297289</v>
+        <v>-4.978165052856658</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766109</v>
+        <v>175.021834940039</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523821</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
@@ -10564,40 +10564,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248879</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="D3">
-        <v>4.759944874248879</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.9631090895074</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="G3">
-        <v>54.9631090895074</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054097531216428</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.177627235670569</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063143</v>
+        <v>0.1077319054063176</v>
       </c>
       <c r="K3">
-        <v>2.308438694631063</v>
+        <v>2.308438694631068</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133311</v>
+        <v>0.1077319054133944</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642978</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020817</v>
+        <v>0.9526279648020816</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0.952627964802519</v>
       </c>
       <c r="Q3">
-        <v>-4.023405178662958E-12</v>
+        <v>-4.03513781983343E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753103</v>
+        <v>0.9526279647753101</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0.9526279648292901</v>
       </c>
       <c r="Q4">
-        <v>1.415113103920824E-09</v>
+        <v>1.41509608677625E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663864</v>
+        <v>0.9526279647663862</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627964838214</v>
+        <v>0.9526279648382138</v>
       </c>
       <c r="Q5">
-        <v>1.888151678549743E-09</v>
+        <v>1.888134647750517E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10774,16 +10774,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279647663864</v>
+        <v>0.9526279647663862</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382139</v>
+        <v>0.9526279648382138</v>
       </c>
       <c r="Q6">
-        <v>1.888155534101026E-09</v>
+        <v>1.888134647750517E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
